--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/UiPath/RoboticEnterpriseFramework/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2CCO\Documents\UiPath\REFrameworkPadrao\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{016F71CB-3AD9-416D-8248-115E9B62B43B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B9A4C-4083-4E90-9E3A-E1D710987102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="900" windowWidth="21768" windowHeight="10068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -51,31 +51,16 @@
     <t>LogMessage_GetTransactionData</t>
   </si>
   <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
     <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
   </si>
   <si>
     <t>LogMessage_Success</t>
   </si>
   <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
     <t>LogMessage_BusinessRuleException</t>
   </si>
   <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
     <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
@@ -117,6 +102,21 @@
   </si>
   <si>
     <t>Parte estática da mensagem de registro. A transação processada falhou com exceção do aplicativo.</t>
+  </si>
+  <si>
+    <t>Processando transação de número:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro ao obter dados da transação para o número da transação: </t>
+  </si>
+  <si>
+    <t>Transação bem-sucedida.</t>
+  </si>
+  <si>
+    <t>Exceção de regra de negócios.</t>
+  </si>
+  <si>
+    <t>Exceção do sistema.</t>
   </si>
 </sst>
 </file>
@@ -499,16 +499,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -547,25 +547,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1576,16 +1576,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1622,7 +1622,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="45">
+    <row r="2" spans="1:26" ht="43.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1642,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1651,54 +1651,54 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2688,14 +2688,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
